--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_August_von_Quenstedt/Friedrich_August_von_Quenstedt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_August_von_Quenstedt/Friedrich_August_von_Quenstedt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich August von Quenstedt, né le 10 juillet 1809 à  Eisleben (Royaume de Saxe) et mort le 21 décembre 1889 à Tübingen (Royaume de Wurtemberg), est un géologue et paléontologue allemand.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich August Quenstedt étudia en 1830 la « géognosie » sous la direction de Christian Samuel Weiss à Berlin. En 1837 il inaugura la chaire de minéralogie et de géognosie de l’Université Eberhard Karl de Tübingen. Là, il fit de la géologie, discipline naissante, l'une des spécialités des académies du Royaume de Wurtemberg. Il demeura à ce poste pendant 52 ans, et dans les Annalen des Geologischen Institutes, la géologie du XIXe siècle est désignée comme la Quenstedt-Ära.
 Ses principaux domaines d’étude étaient les fossiles et leur application à la stratigraphie. Il rassembla à Tübingen une collection de fossiles, ramassés ou achetés, pour ses recherches et son enseignement. Déjà en 1842, cette collection comptait près de 30 000 spécimens. Une grosse partie provenait des fossiles d'ammonites que lui apportaient les paysans d'Öschingen. En 1842 il publia le néologisme de Stufenlandschaft, aujourd'hui internationalement adopté.
 Sa contribution essentielle est la caractérisation poussée des formations jurassiques présentes dans le Jura souabe. À l'instar de son homologue, l’Anglais William Smith, il pratiqua la datation par les fossiles. On lui doit la mise en évidence de la série de Quenstedt (de) des couches du Jurassique, qui n'a été abandonnée qu'en 1973 par convention internationale. Son traité le plus célèbre est « Le Jurassique » (Der Jura, 1858). Il compila jusqu'à sa mort un tableau exhaustif de toutes les variétés d'ammonites du Jura souabe. Par le ton familier de ses conférences publiques, il parvint à intéresser un large auditoire aux fossiles. Mais Quenstedt éprouvait peu de curiosité pour les autres régions du globe. Sa collection de fossiles est aujourd'hui conservée à l’Institut de géologie de l’Université de Tübingen et les visiteurs peuvent venir y faire identifier leurs propres trouvailles. Il fit également des fouilles à Nusplingen où il découvrit un calcaire lithographique.
-L'un de ses plus célèbres disciples est le paléontologue Albert Oppel. Son neveu Werner Quenstedt[1] (1893–1960) enseigna la géologie et la paléontologie à l’Université Frédéric-Guillaume de Berlin dans les années 1930 et 1940.
+L'un de ses plus célèbres disciples est le paléontologue Albert Oppel. Son neveu Werner Quenstedt (1893–1960) enseigna la géologie et la paléontologie à l’Université Frédéric-Guillaume de Berlin dans les années 1930 et 1940.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Methode der Krystallographie. Ein Lehrbuch für Anfänger und Geübte. Osiander, Tübingen 1840. MDZ Munich
 Das Flözgebirge Würtembergs. Mit besonderer Rücksicht auf den Jura. Laupp, Tübingen 1843.
